--- a/natmiOut/YoungD2/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H2">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I2">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J2">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.380637249405752</v>
+        <v>0.02516733333333333</v>
       </c>
       <c r="N2">
-        <v>0.380637249405752</v>
+        <v>0.075502</v>
       </c>
       <c r="O2">
-        <v>0.08172695810995302</v>
+        <v>0.004888204543993421</v>
       </c>
       <c r="P2">
-        <v>0.08172695810995302</v>
+        <v>0.00488820454399342</v>
       </c>
       <c r="Q2">
-        <v>1.406779840654102</v>
+        <v>0.1125312428255556</v>
       </c>
       <c r="R2">
-        <v>1.406779840654102</v>
+        <v>1.01278118543</v>
       </c>
       <c r="S2">
-        <v>0.005963201457054489</v>
+        <v>0.0004067227725197436</v>
       </c>
       <c r="T2">
-        <v>0.005963201457054489</v>
+        <v>0.0004067227725197435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H3">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I3">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J3">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.61194720363087</v>
+        <v>0.3823143333333334</v>
       </c>
       <c r="N3">
-        <v>0.61194720363087</v>
+        <v>1.146943</v>
       </c>
       <c r="O3">
-        <v>0.1313917215267877</v>
+        <v>0.07425620492571648</v>
       </c>
       <c r="P3">
-        <v>0.1313917215267877</v>
+        <v>0.07425620492571648</v>
       </c>
       <c r="Q3">
-        <v>2.261667745226065</v>
+        <v>1.709450362110556</v>
       </c>
       <c r="R3">
-        <v>2.261667745226065</v>
+        <v>15.385053258995</v>
       </c>
       <c r="S3">
-        <v>0.00958698724843423</v>
+        <v>0.006178483177692145</v>
       </c>
       <c r="T3">
-        <v>0.00958698724843423</v>
+        <v>0.006178483177692143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H4">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I4">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J4">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.498027648015566</v>
+        <v>0.7297406666666667</v>
       </c>
       <c r="N4">
-        <v>0.498027648015566</v>
+        <v>2.189222</v>
       </c>
       <c r="O4">
-        <v>0.1069319536921589</v>
+        <v>0.1417361782232307</v>
       </c>
       <c r="P4">
-        <v>0.1069319536921589</v>
+        <v>0.1417361782232307</v>
       </c>
       <c r="Q4">
-        <v>1.840637658060188</v>
+        <v>3.262905253914445</v>
       </c>
       <c r="R4">
-        <v>1.840637658060188</v>
+        <v>29.36614728523</v>
       </c>
       <c r="S4">
-        <v>0.007802282096500893</v>
+        <v>0.01179315040000554</v>
       </c>
       <c r="T4">
-        <v>0.007802282096500893</v>
+        <v>0.01179315040000553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H5">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I5">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J5">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.16681377418538</v>
+        <v>0.6020886666666666</v>
       </c>
       <c r="N5">
-        <v>3.16681377418538</v>
+        <v>1.806266</v>
       </c>
       <c r="O5">
-        <v>0.6799493666711005</v>
+        <v>0.1169425666718871</v>
       </c>
       <c r="P5">
-        <v>0.6799493666711005</v>
+        <v>0.1169425666718871</v>
       </c>
       <c r="Q5">
-        <v>11.70408251842102</v>
+        <v>2.692132100521111</v>
       </c>
       <c r="R5">
-        <v>11.70408251842102</v>
+        <v>24.22918890469</v>
       </c>
       <c r="S5">
-        <v>0.04961245527578972</v>
+        <v>0.009730199404362099</v>
       </c>
       <c r="T5">
-        <v>0.04961245527578972</v>
+        <v>0.009730199404362096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.431079089072683</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H6">
-        <v>0.431079089072683</v>
+        <v>13.413965</v>
       </c>
       <c r="I6">
-        <v>0.008510523072649297</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J6">
-        <v>0.008510523072649297</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.380637249405752</v>
+        <v>0.1514643333333333</v>
       </c>
       <c r="N6">
-        <v>0.380637249405752</v>
+        <v>0.454393</v>
       </c>
       <c r="O6">
-        <v>0.08172695810995302</v>
+        <v>0.02941863695476679</v>
       </c>
       <c r="P6">
-        <v>0.08172695810995302</v>
+        <v>0.02941863695476679</v>
       </c>
       <c r="Q6">
-        <v>0.1640847587409632</v>
+        <v>0.6772457553605556</v>
       </c>
       <c r="R6">
-        <v>0.1640847587409632</v>
+        <v>6.095211798245001</v>
       </c>
       <c r="S6">
-        <v>0.0006955391626521978</v>
+        <v>0.002447775963200496</v>
       </c>
       <c r="T6">
-        <v>0.0006955391626521978</v>
+        <v>0.002447775963200495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.431079089072683</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H7">
-        <v>0.431079089072683</v>
+        <v>13.413965</v>
       </c>
       <c r="I7">
-        <v>0.008510523072649297</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J7">
-        <v>0.008510523072649297</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.61194720363087</v>
+        <v>3.257809</v>
       </c>
       <c r="N7">
-        <v>0.61194720363087</v>
+        <v>9.773427</v>
       </c>
       <c r="O7">
-        <v>0.1313917215267877</v>
+        <v>0.6327582086804056</v>
       </c>
       <c r="P7">
-        <v>0.1313917215267877</v>
+        <v>0.6327582086804056</v>
       </c>
       <c r="Q7">
-        <v>0.2637976431017711</v>
+        <v>14.56671196756167</v>
       </c>
       <c r="R7">
-        <v>0.2637976431017711</v>
+        <v>131.100407708055</v>
       </c>
       <c r="S7">
-        <v>0.001118212277608838</v>
+        <v>0.05264860965880798</v>
       </c>
       <c r="T7">
-        <v>0.001118212277608838</v>
+        <v>0.05264860965880797</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H8">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I8">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J8">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.498027648015566</v>
+        <v>0.02516733333333333</v>
       </c>
       <c r="N8">
-        <v>0.498027648015566</v>
+        <v>0.075502</v>
       </c>
       <c r="O8">
-        <v>0.1069319536921589</v>
+        <v>0.004888204543993421</v>
       </c>
       <c r="P8">
-        <v>0.1069319536921589</v>
+        <v>0.00488820454399342</v>
       </c>
       <c r="Q8">
-        <v>0.214689304839561</v>
+        <v>0.01136529928177778</v>
       </c>
       <c r="R8">
-        <v>0.214689304839561</v>
+        <v>0.102287693536</v>
       </c>
       <c r="S8">
-        <v>0.0009100468591005842</v>
+        <v>4.107771244975128E-05</v>
       </c>
       <c r="T8">
-        <v>0.0009100468591005842</v>
+        <v>4.107771244975127E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H9">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I9">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J9">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.16681377418538</v>
+        <v>0.3823143333333334</v>
       </c>
       <c r="N9">
-        <v>3.16681377418538</v>
+        <v>1.146943</v>
       </c>
       <c r="O9">
-        <v>0.6799493666711005</v>
+        <v>0.07425620492571648</v>
       </c>
       <c r="P9">
-        <v>0.6799493666711005</v>
+        <v>0.07425620492571648</v>
       </c>
       <c r="Q9">
-        <v>1.365147197038659</v>
+        <v>0.1726490749137778</v>
       </c>
       <c r="R9">
-        <v>1.365147197038659</v>
+        <v>1.553841674224</v>
       </c>
       <c r="S9">
-        <v>0.005786724773287678</v>
+        <v>0.0006240072415334042</v>
       </c>
       <c r="T9">
-        <v>0.005786724773287678</v>
+        <v>0.0006240072415334041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.0571435599817</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H10">
-        <v>6.0571435599817</v>
+        <v>1.354768</v>
       </c>
       <c r="I10">
-        <v>0.11958237207113</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J10">
-        <v>0.11958237207113</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.380637249405752</v>
+        <v>0.7297406666666667</v>
       </c>
       <c r="N10">
-        <v>0.380637249405752</v>
+        <v>2.189222</v>
       </c>
       <c r="O10">
-        <v>0.08172695810995302</v>
+        <v>0.1417361782232307</v>
       </c>
       <c r="P10">
-        <v>0.08172695810995302</v>
+        <v>0.1417361782232307</v>
       </c>
       <c r="Q10">
-        <v>2.305574463927199</v>
+        <v>0.3295431011662223</v>
       </c>
       <c r="R10">
-        <v>2.305574463927199</v>
+        <v>2.965887910496</v>
       </c>
       <c r="S10">
-        <v>0.009773103512946055</v>
+        <v>0.001191070856463</v>
       </c>
       <c r="T10">
-        <v>0.009773103512946055</v>
+        <v>0.001191070856462999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.0571435599817</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H11">
-        <v>6.0571435599817</v>
+        <v>1.354768</v>
       </c>
       <c r="I11">
-        <v>0.11958237207113</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J11">
-        <v>0.11958237207113</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.61194720363087</v>
+        <v>0.6020886666666666</v>
       </c>
       <c r="N11">
-        <v>0.61194720363087</v>
+        <v>1.806266</v>
       </c>
       <c r="O11">
-        <v>0.1313917215267877</v>
+        <v>0.1169425666718871</v>
       </c>
       <c r="P11">
-        <v>0.1313917215267877</v>
+        <v>0.1169425666718871</v>
       </c>
       <c r="Q11">
-        <v>3.706652063521534</v>
+        <v>0.2718968195875555</v>
       </c>
       <c r="R11">
-        <v>3.706652063521534</v>
+        <v>2.447071376288</v>
       </c>
       <c r="S11">
-        <v>0.01571213373068262</v>
+        <v>0.0009827193366501873</v>
       </c>
       <c r="T11">
-        <v>0.01571213373068262</v>
+        <v>0.0009827193366501871</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.0571435599817</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H12">
-        <v>6.0571435599817</v>
+        <v>1.354768</v>
       </c>
       <c r="I12">
-        <v>0.11958237207113</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J12">
-        <v>0.11958237207113</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.498027648015566</v>
+        <v>0.1514643333333333</v>
       </c>
       <c r="N12">
-        <v>0.498027648015566</v>
+        <v>0.454393</v>
       </c>
       <c r="O12">
-        <v>0.1069319536921589</v>
+        <v>0.02941863695476679</v>
       </c>
       <c r="P12">
-        <v>0.1069319536921589</v>
+        <v>0.02941863695476679</v>
       </c>
       <c r="Q12">
-        <v>3.016624960870319</v>
+        <v>0.06839967731377779</v>
       </c>
       <c r="R12">
-        <v>3.016624960870319</v>
+        <v>0.615597095824</v>
       </c>
       <c r="S12">
-        <v>0.01278717667270858</v>
+        <v>0.0002472176232838843</v>
       </c>
       <c r="T12">
-        <v>0.01278717667270858</v>
+        <v>0.0002472176232838842</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.0571435599817</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H13">
-        <v>6.0571435599817</v>
+        <v>1.354768</v>
       </c>
       <c r="I13">
-        <v>0.11958237207113</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J13">
-        <v>0.11958237207113</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.16681377418538</v>
+        <v>3.257809</v>
       </c>
       <c r="N13">
-        <v>3.16681377418538</v>
+        <v>9.773427</v>
       </c>
       <c r="O13">
-        <v>0.6799493666711005</v>
+        <v>0.6327582086804056</v>
       </c>
       <c r="P13">
-        <v>0.6799493666711005</v>
+        <v>0.6327582086804056</v>
       </c>
       <c r="Q13">
-        <v>19.18184565796832</v>
+        <v>1.471191794437333</v>
       </c>
       <c r="R13">
-        <v>19.18184565796832</v>
+        <v>13.240726149936</v>
       </c>
       <c r="S13">
-        <v>0.08130995815479272</v>
+        <v>0.005317342904222872</v>
       </c>
       <c r="T13">
-        <v>0.08130995815479272</v>
+        <v>0.00531734290422287</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.05166258575103</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H14">
-        <v>5.05166258575103</v>
+        <v>18.638963</v>
       </c>
       <c r="I14">
-        <v>0.09973179419061207</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J14">
-        <v>0.09973179419061207</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.380637249405752</v>
+        <v>0.02516733333333333</v>
       </c>
       <c r="N14">
-        <v>0.380637249405752</v>
+        <v>0.075502</v>
       </c>
       <c r="O14">
-        <v>0.08172695810995302</v>
+        <v>0.004888204543993421</v>
       </c>
       <c r="P14">
-        <v>0.08172695810995302</v>
+        <v>0.00488820454399342</v>
       </c>
       <c r="Q14">
-        <v>1.922850951566221</v>
+        <v>0.1563643316028889</v>
       </c>
       <c r="R14">
-        <v>1.922850951566221</v>
+        <v>1.407278984426</v>
       </c>
       <c r="S14">
-        <v>0.008150776166046609</v>
+        <v>0.0005651491343724929</v>
       </c>
       <c r="T14">
-        <v>0.008150776166046609</v>
+        <v>0.0005651491343724927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.05166258575103</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H15">
-        <v>5.05166258575103</v>
+        <v>18.638963</v>
       </c>
       <c r="I15">
-        <v>0.09973179419061207</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J15">
-        <v>0.09973179419061207</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.61194720363087</v>
+        <v>0.3823143333333334</v>
       </c>
       <c r="N15">
-        <v>0.61194720363087</v>
+        <v>1.146943</v>
       </c>
       <c r="O15">
-        <v>0.1313917215267877</v>
+        <v>0.07425620492571648</v>
       </c>
       <c r="P15">
-        <v>0.1313917215267877</v>
+        <v>0.07425620492571648</v>
       </c>
       <c r="Q15">
-        <v>3.091350793037033</v>
+        <v>2.375314237789889</v>
       </c>
       <c r="R15">
-        <v>3.091350793037033</v>
+        <v>21.377828140109</v>
       </c>
       <c r="S15">
-        <v>0.0131039321296598</v>
+        <v>0.008585121501742869</v>
       </c>
       <c r="T15">
-        <v>0.0131039321296598</v>
+        <v>0.008585121501742867</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.05166258575103</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H16">
-        <v>5.05166258575103</v>
+        <v>18.638963</v>
       </c>
       <c r="I16">
-        <v>0.09973179419061207</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J16">
-        <v>0.09973179419061207</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.498027648015566</v>
+        <v>0.7297406666666667</v>
       </c>
       <c r="N16">
-        <v>0.498027648015566</v>
+        <v>2.189222</v>
       </c>
       <c r="O16">
-        <v>0.1069319536921589</v>
+        <v>0.1417361782232307</v>
       </c>
       <c r="P16">
-        <v>0.1069319536921589</v>
+        <v>0.1417361782232307</v>
       </c>
       <c r="Q16">
-        <v>2.515867636149818</v>
+        <v>4.533869761865111</v>
       </c>
       <c r="R16">
-        <v>2.515867636149818</v>
+        <v>40.80482785678599</v>
       </c>
       <c r="S16">
-        <v>0.01066451559802645</v>
+        <v>0.01638680986264228</v>
       </c>
       <c r="T16">
-        <v>0.01066451559802645</v>
+        <v>0.01638680986264228</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.05166258575103</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H17">
-        <v>5.05166258575103</v>
+        <v>18.638963</v>
       </c>
       <c r="I17">
-        <v>0.09973179419061207</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J17">
-        <v>0.09973179419061207</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.16681377418538</v>
+        <v>0.6020886666666666</v>
       </c>
       <c r="N17">
-        <v>3.16681377418538</v>
+        <v>1.806266</v>
       </c>
       <c r="O17">
-        <v>0.6799493666711005</v>
+        <v>0.1169425666718871</v>
       </c>
       <c r="P17">
-        <v>0.6799493666711005</v>
+        <v>0.1169425666718871</v>
       </c>
       <c r="Q17">
-        <v>15.9976746590933</v>
+        <v>3.740769460239777</v>
       </c>
       <c r="R17">
-        <v>15.9976746590933</v>
+        <v>33.66692514215799</v>
       </c>
       <c r="S17">
-        <v>0.06781257029687922</v>
+        <v>0.01352029967876964</v>
       </c>
       <c r="T17">
-        <v>0.06781257029687922</v>
+        <v>0.01352029967876963</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.5687969974185</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H18">
-        <v>31.5687969974185</v>
+        <v>18.638963</v>
       </c>
       <c r="I18">
-        <v>0.6232428851982955</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J18">
-        <v>0.6232428851982955</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.380637249405752</v>
+        <v>0.1514643333333333</v>
       </c>
       <c r="N18">
-        <v>0.380637249405752</v>
+        <v>0.454393</v>
       </c>
       <c r="O18">
-        <v>0.08172695810995302</v>
+        <v>0.02941863695476679</v>
       </c>
       <c r="P18">
-        <v>0.08172695810995302</v>
+        <v>0.02941863695476679</v>
       </c>
       <c r="Q18">
-        <v>12.01626005614594</v>
+        <v>0.9410460349398888</v>
       </c>
       <c r="R18">
-        <v>12.01626005614594</v>
+        <v>8.469414314458998</v>
       </c>
       <c r="S18">
-        <v>0.05093574517092736</v>
+        <v>0.003401231896041431</v>
       </c>
       <c r="T18">
-        <v>0.05093574517092736</v>
+        <v>0.00340123189604143</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.5687969974185</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H19">
-        <v>31.5687969974185</v>
+        <v>18.638963</v>
       </c>
       <c r="I19">
-        <v>0.6232428851982955</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J19">
-        <v>0.6232428851982955</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.61194720363087</v>
+        <v>3.257809</v>
       </c>
       <c r="N19">
-        <v>0.61194720363087</v>
+        <v>9.773427</v>
       </c>
       <c r="O19">
-        <v>0.1313917215267877</v>
+        <v>0.6327582086804056</v>
       </c>
       <c r="P19">
-        <v>0.1313917215267877</v>
+        <v>0.6327582086804056</v>
       </c>
       <c r="Q19">
-        <v>19.31843704456086</v>
+        <v>20.24072713735566</v>
       </c>
       <c r="R19">
-        <v>19.31843704456086</v>
+        <v>182.166544236201</v>
       </c>
       <c r="S19">
-        <v>0.08188895561552616</v>
+        <v>0.07315625823028196</v>
       </c>
       <c r="T19">
-        <v>0.08188895561552616</v>
+        <v>0.07315625823028195</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.5687969974185</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H20">
-        <v>31.5687969974185</v>
+        <v>19.421911</v>
       </c>
       <c r="I20">
-        <v>0.6232428851982955</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J20">
-        <v>0.6232428851982955</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.498027648015566</v>
+        <v>0.02516733333333333</v>
       </c>
       <c r="N20">
-        <v>0.498027648015566</v>
+        <v>0.075502</v>
       </c>
       <c r="O20">
-        <v>0.1069319536921589</v>
+        <v>0.004888204543993421</v>
       </c>
       <c r="P20">
-        <v>0.1069319536921589</v>
+        <v>0.00488820454399342</v>
       </c>
       <c r="Q20">
-        <v>15.7221337193052</v>
+        <v>0.1629325693691111</v>
       </c>
       <c r="R20">
-        <v>15.7221337193052</v>
+        <v>1.466393124322</v>
       </c>
       <c r="S20">
-        <v>0.06664457933899161</v>
+        <v>0.0005888887804278381</v>
       </c>
       <c r="T20">
-        <v>0.06664457933899161</v>
+        <v>0.000588888780427838</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.5687969974185</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H21">
-        <v>31.5687969974185</v>
+        <v>19.421911</v>
       </c>
       <c r="I21">
-        <v>0.6232428851982955</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J21">
-        <v>0.6232428851982955</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.16681377418538</v>
+        <v>0.3823143333333334</v>
       </c>
       <c r="N21">
-        <v>3.16681377418538</v>
+        <v>1.146943</v>
       </c>
       <c r="O21">
-        <v>0.6799493666711005</v>
+        <v>0.07425620492571648</v>
       </c>
       <c r="P21">
-        <v>0.6799493666711005</v>
+        <v>0.07425620492571648</v>
       </c>
       <c r="Q21">
-        <v>99.97250116588697</v>
+        <v>2.475091652008111</v>
       </c>
       <c r="R21">
-        <v>99.97250116588697</v>
+        <v>22.275824868073</v>
       </c>
       <c r="S21">
-        <v>0.4237736050728504</v>
+        <v>0.008945747986679107</v>
       </c>
       <c r="T21">
-        <v>0.4237736050728504</v>
+        <v>0.008945747986679107</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.84794214837555</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H22">
-        <v>3.84794214837555</v>
+        <v>19.421911</v>
       </c>
       <c r="I22">
-        <v>0.07596749938953377</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J22">
-        <v>0.07596749938953377</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.380637249405752</v>
+        <v>0.7297406666666667</v>
       </c>
       <c r="N22">
-        <v>0.380637249405752</v>
+        <v>2.189222</v>
       </c>
       <c r="O22">
-        <v>0.08172695810995302</v>
+        <v>0.1417361782232307</v>
       </c>
       <c r="P22">
-        <v>0.08172695810995302</v>
+        <v>0.1417361782232307</v>
       </c>
       <c r="Q22">
-        <v>1.464670115230129</v>
+        <v>4.72431942702689</v>
       </c>
       <c r="R22">
-        <v>1.464670115230129</v>
+        <v>42.518874843242</v>
       </c>
       <c r="S22">
-        <v>0.006208592640326308</v>
+        <v>0.01707515395176012</v>
       </c>
       <c r="T22">
-        <v>0.006208592640326308</v>
+        <v>0.01707515395176011</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.84794214837555</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H23">
-        <v>3.84794214837555</v>
+        <v>19.421911</v>
       </c>
       <c r="I23">
-        <v>0.07596749938953377</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J23">
-        <v>0.07596749938953377</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.61194720363087</v>
+        <v>0.6020886666666666</v>
       </c>
       <c r="N23">
-        <v>0.61194720363087</v>
+        <v>1.806266</v>
       </c>
       <c r="O23">
-        <v>0.1313917215267877</v>
+        <v>0.1169425666718871</v>
       </c>
       <c r="P23">
-        <v>0.1313917215267877</v>
+        <v>0.1169425666718871</v>
       </c>
       <c r="Q23">
-        <v>2.35473743743178</v>
+        <v>3.897904166036222</v>
       </c>
       <c r="R23">
-        <v>2.35473743743178</v>
+        <v>35.081137494326</v>
       </c>
       <c r="S23">
-        <v>0.009981500524876036</v>
+        <v>0.01408823318413114</v>
       </c>
       <c r="T23">
-        <v>0.009981500524876036</v>
+        <v>0.01408823318413114</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,60 +1898,60 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.84794214837555</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H24">
-        <v>3.84794214837555</v>
+        <v>19.421911</v>
       </c>
       <c r="I24">
-        <v>0.07596749938953377</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J24">
-        <v>0.07596749938953377</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.498027648015566</v>
+        <v>0.1514643333333333</v>
       </c>
       <c r="N24">
-        <v>0.498027648015566</v>
+        <v>0.454393</v>
       </c>
       <c r="O24">
-        <v>0.1069319536921589</v>
+        <v>0.02941863695476679</v>
       </c>
       <c r="P24">
-        <v>0.1069319536921589</v>
+        <v>0.02941863695476679</v>
       </c>
       <c r="Q24">
-        <v>1.916381577855439</v>
+        <v>0.9805756005581112</v>
       </c>
       <c r="R24">
-        <v>1.916381577855439</v>
+        <v>8.825180405023001</v>
       </c>
       <c r="S24">
-        <v>0.008123353126830732</v>
+        <v>0.00354410399201275</v>
       </c>
       <c r="T24">
-        <v>0.008123353126830732</v>
+        <v>0.003544103992012749</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.84794214837555</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H25">
-        <v>3.84794214837555</v>
+        <v>19.421911</v>
       </c>
       <c r="I25">
-        <v>0.07596749938953377</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J25">
-        <v>0.07596749938953377</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.16681377418538</v>
+        <v>3.257809</v>
       </c>
       <c r="N25">
-        <v>3.16681377418538</v>
+        <v>9.773427</v>
       </c>
       <c r="O25">
-        <v>0.6799493666711005</v>
+        <v>0.6327582086804056</v>
       </c>
       <c r="P25">
-        <v>0.6799493666711005</v>
+        <v>0.6327582086804056</v>
       </c>
       <c r="Q25">
-        <v>12.18571619774417</v>
+        <v>21.09095881766633</v>
       </c>
       <c r="R25">
-        <v>12.18571619774417</v>
+        <v>189.818629358997</v>
       </c>
       <c r="S25">
-        <v>0.05165405309750071</v>
+        <v>0.07622925891539965</v>
       </c>
       <c r="T25">
-        <v>0.05165405309750071</v>
+        <v>0.07622925891539964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="H26">
+        <v>96.748831</v>
+      </c>
+      <c r="I26">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="J26">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.02516733333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.075502</v>
+      </c>
+      <c r="O26">
+        <v>0.004888204543993421</v>
+      </c>
+      <c r="P26">
+        <v>0.00488820454399342</v>
+      </c>
+      <c r="Q26">
+        <v>0.811636693129111</v>
+      </c>
+      <c r="R26">
+        <v>7.304730238162</v>
+      </c>
+      <c r="S26">
+        <v>0.002933506445138638</v>
+      </c>
+      <c r="T26">
+        <v>0.002933506445138637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="H27">
+        <v>96.748831</v>
+      </c>
+      <c r="I27">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="J27">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.3823143333333334</v>
+      </c>
+      <c r="N27">
+        <v>1.146943</v>
+      </c>
+      <c r="O27">
+        <v>0.07425620492571648</v>
+      </c>
+      <c r="P27">
+        <v>0.07425620492571648</v>
+      </c>
+      <c r="Q27">
+        <v>12.32948827484811</v>
+      </c>
+      <c r="R27">
+        <v>110.965394473633</v>
+      </c>
+      <c r="S27">
+        <v>0.04456259016591143</v>
+      </c>
+      <c r="T27">
+        <v>0.04456259016591143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="H28">
+        <v>96.748831</v>
+      </c>
+      <c r="I28">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="J28">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.7297406666666667</v>
+      </c>
+      <c r="N28">
+        <v>2.189222</v>
+      </c>
+      <c r="O28">
+        <v>0.1417361782232307</v>
+      </c>
+      <c r="P28">
+        <v>0.1417361782232307</v>
+      </c>
+      <c r="Q28">
+        <v>23.53385214438689</v>
+      </c>
+      <c r="R28">
+        <v>211.804669299482</v>
+      </c>
+      <c r="S28">
+        <v>0.08505863217980052</v>
+      </c>
+      <c r="T28">
+        <v>0.0850586321798005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="H29">
+        <v>96.748831</v>
+      </c>
+      <c r="I29">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="J29">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.6020886666666666</v>
+      </c>
+      <c r="N29">
+        <v>1.806266</v>
+      </c>
+      <c r="O29">
+        <v>0.1169425666718871</v>
+      </c>
+      <c r="P29">
+        <v>0.1169425666718871</v>
+      </c>
+      <c r="Q29">
+        <v>19.41712488611622</v>
+      </c>
+      <c r="R29">
+        <v>174.754123975046</v>
+      </c>
+      <c r="S29">
+        <v>0.07017950455133355</v>
+      </c>
+      <c r="T29">
+        <v>0.07017950455133355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="H30">
+        <v>96.748831</v>
+      </c>
+      <c r="I30">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="J30">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1514643333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.454393</v>
+      </c>
+      <c r="O30">
+        <v>0.02941863695476679</v>
+      </c>
+      <c r="P30">
+        <v>0.02941863695476679</v>
+      </c>
+      <c r="Q30">
+        <v>4.884665729398111</v>
+      </c>
+      <c r="R30">
+        <v>43.96199156458299</v>
+      </c>
+      <c r="S30">
+        <v>0.01765469516206036</v>
+      </c>
+      <c r="T30">
+        <v>0.01765469516206035</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="H31">
+        <v>96.748831</v>
+      </c>
+      <c r="I31">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="J31">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.257809</v>
+      </c>
+      <c r="N31">
+        <v>9.773427</v>
+      </c>
+      <c r="O31">
+        <v>0.6327582086804056</v>
+      </c>
+      <c r="P31">
+        <v>0.6327582086804056</v>
+      </c>
+      <c r="Q31">
+        <v>105.0630707904263</v>
+      </c>
+      <c r="R31">
+        <v>945.5676371138369</v>
+      </c>
+      <c r="S31">
+        <v>0.3797304852267752</v>
+      </c>
+      <c r="T31">
+        <v>0.3797304852267752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.879176</v>
+      </c>
+      <c r="H32">
+        <v>11.637528</v>
+      </c>
+      <c r="I32">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="J32">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.02516733333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.075502</v>
+      </c>
+      <c r="O32">
+        <v>0.004888204543993421</v>
+      </c>
+      <c r="P32">
+        <v>0.00488820454399342</v>
+      </c>
+      <c r="Q32">
+        <v>0.09762851545066666</v>
+      </c>
+      <c r="R32">
+        <v>0.878656639056</v>
+      </c>
+      <c r="S32">
+        <v>0.0003528596990849571</v>
+      </c>
+      <c r="T32">
+        <v>0.0003528596990849569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.879176</v>
+      </c>
+      <c r="H33">
+        <v>11.637528</v>
+      </c>
+      <c r="I33">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="J33">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.3823143333333334</v>
+      </c>
+      <c r="N33">
+        <v>1.146943</v>
+      </c>
+      <c r="O33">
+        <v>0.07425620492571648</v>
+      </c>
+      <c r="P33">
+        <v>0.07425620492571648</v>
+      </c>
+      <c r="Q33">
+        <v>1.483064586322667</v>
+      </c>
+      <c r="R33">
+        <v>13.347581276904</v>
+      </c>
+      <c r="S33">
+        <v>0.005360254852157531</v>
+      </c>
+      <c r="T33">
+        <v>0.00536025485215753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.879176</v>
+      </c>
+      <c r="H34">
+        <v>11.637528</v>
+      </c>
+      <c r="I34">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="J34">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.7297406666666667</v>
+      </c>
+      <c r="N34">
+        <v>2.189222</v>
+      </c>
+      <c r="O34">
+        <v>0.1417361782232307</v>
+      </c>
+      <c r="P34">
+        <v>0.1417361782232307</v>
+      </c>
+      <c r="Q34">
+        <v>2.830792480357333</v>
+      </c>
+      <c r="R34">
+        <v>25.477132323216</v>
+      </c>
+      <c r="S34">
+        <v>0.01023136097255924</v>
+      </c>
+      <c r="T34">
+        <v>0.01023136097255924</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.879176</v>
+      </c>
+      <c r="H35">
+        <v>11.637528</v>
+      </c>
+      <c r="I35">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="J35">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.6020886666666666</v>
+      </c>
+      <c r="N35">
+        <v>1.806266</v>
+      </c>
+      <c r="O35">
+        <v>0.1169425666718871</v>
+      </c>
+      <c r="P35">
+        <v>0.1169425666718871</v>
+      </c>
+      <c r="Q35">
+        <v>2.335607905605333</v>
+      </c>
+      <c r="R35">
+        <v>21.020471150448</v>
+      </c>
+      <c r="S35">
+        <v>0.008441610516640472</v>
+      </c>
+      <c r="T35">
+        <v>0.008441610516640472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.879176</v>
+      </c>
+      <c r="H36">
+        <v>11.637528</v>
+      </c>
+      <c r="I36">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="J36">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1514643333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.454393</v>
+      </c>
+      <c r="O36">
+        <v>0.02941863695476679</v>
+      </c>
+      <c r="P36">
+        <v>0.02941863695476679</v>
+      </c>
+      <c r="Q36">
+        <v>0.5875568067226666</v>
+      </c>
+      <c r="R36">
+        <v>5.288011260504</v>
+      </c>
+      <c r="S36">
+        <v>0.002123612318167875</v>
+      </c>
+      <c r="T36">
+        <v>0.002123612318167874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.879176</v>
+      </c>
+      <c r="H37">
+        <v>11.637528</v>
+      </c>
+      <c r="I37">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="J37">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.257809</v>
+      </c>
+      <c r="N37">
+        <v>9.773427</v>
+      </c>
+      <c r="O37">
+        <v>0.6327582086804056</v>
+      </c>
+      <c r="P37">
+        <v>0.6327582086804056</v>
+      </c>
+      <c r="Q37">
+        <v>12.637614485384</v>
+      </c>
+      <c r="R37">
+        <v>113.738530368456</v>
+      </c>
+      <c r="S37">
+        <v>0.04567625374491794</v>
+      </c>
+      <c r="T37">
+        <v>0.04567625374491793</v>
       </c>
     </row>
   </sheetData>
